--- a/data/experts/qualitative_analysis_data/first_round/Leonard.xlsx
+++ b/data/experts/qualitative_analysis_data/first_round/Leonard.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ec2aeda8e659f0c/Documents/GitHub/TOCHI-2024/data/experts/qualitative_analysis_data/first_round/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_535E5B7F9B1A3514102253C062EC826CDBDCF719" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15780360-722C-4EF8-9A88-875144D4D022}"/>
+  <bookViews>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Raw" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Interview Analysis (Felipe)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Interview Analysis (Haley)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Interview Analysis (Chandler)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Interview Analysis (Discussion)" sheetId="5" r:id="rId8"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Interview Analysis (Reviewer 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Interview Analysis (Reviewer 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Interview Analysis (Reviewer 3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Interview Analysis (Discussion)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -519,51 +528,61 @@
     <t xml:space="preserve">Manipulating in a controlled environment; Creating a hologram version of the robot to manipulate instead of manipulating a bounding box around the robot; Grabing the bounding box can be tricky; </t>
   </si>
   <si>
-    <t>Codes (Felipe)</t>
-  </si>
-  <si>
-    <t>Codes (Haley)</t>
-  </si>
-  <si>
-    <t>Codes (Chandler)</t>
-  </si>
-  <si>
     <t>Codes (After discussion)</t>
   </si>
   <si>
     <t>Grabbing is frustrating;</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 1)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 2)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -571,7 +590,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -587,93 +606,111 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -863,24 +900,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +951,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -940,7 +980,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -969,37 +1009,37 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="210" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1068,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1097,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1126,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1155,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1184,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="120" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1173,12 +1213,12 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1247,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1236,7 +1276,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1265,27 +1305,27 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1354,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1343,7 +1383,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1412,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1441,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1430,492 +1470,493 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="105" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="150" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="135" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="150" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="375" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="120" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A120">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1987,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +2016,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2004,7 +2045,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2074,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2103,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2091,62 +2132,62 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="210" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="120" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2216,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2245,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2274,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -2262,7 +2303,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2291,7 +2332,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2320,12 +2361,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2354,7 +2395,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2424,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -2412,12 +2453,12 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -2446,7 +2487,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -2475,17 +2516,17 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2514,16 +2555,16 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="3"/>
@@ -2550,7 +2591,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2620,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2608,55 +2649,55 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -2685,7 +2726,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -2714,7 +2755,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -2743,7 +2784,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -2772,7 +2813,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -2801,7 +2842,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2830,11 +2871,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C53" s="3"/>
@@ -2861,7 +2902,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2890,11 +2931,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="3"/>
@@ -2921,7 +2962,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2950,380 +2991,381 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="150" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="375" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A120">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1C232"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,11 +3396,11 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="3"/>
@@ -3385,7 +3427,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3414,7 +3456,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3443,7 +3485,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3472,11 +3514,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="3"/>
@@ -3503,74 +3545,74 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="210" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="120" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -3599,11 +3641,11 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="3"/>
@@ -3630,7 +3672,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -3659,11 +3701,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="3"/>
@@ -3690,7 +3732,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -3719,7 +3761,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -3748,15 +3790,15 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -3785,11 +3827,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C26" s="3"/>
@@ -3816,7 +3858,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -3845,16 +3887,16 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="3"/>
@@ -3881,7 +3923,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -3910,24 +3952,24 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="3"/>
@@ -3954,16 +3996,16 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C35" s="3"/>
@@ -3990,11 +4032,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="3"/>
@@ -4021,7 +4063,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -4050,61 +4092,64 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -4133,11 +4178,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="3"/>
@@ -4164,11 +4209,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="3"/>
@@ -4195,7 +4240,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -4224,11 +4269,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C51" s="3"/>
@@ -4255,10 +4300,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4283,10 +4329,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4311,7 +4358,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -4340,11 +4387,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="3"/>
@@ -4371,7 +4418,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -4400,382 +4447,404 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="B65" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="B69" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="B95" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="B101" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="375" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109">
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="B110" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="B114" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="B116" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="B118" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>117</v>
       </c>
@@ -4793,34 +4862,35 @@
     <mergeCell ref="B87:B93"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A120">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -4847,11 +4917,11 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4876,11 +4946,11 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4905,11 +4975,11 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4934,11 +5004,11 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4963,11 +5033,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4992,79 +5062,79 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="210" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="120" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5089,11 +5159,11 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -5118,11 +5188,11 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -5147,11 +5217,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -5176,11 +5246,11 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -5205,11 +5275,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -5234,17 +5304,17 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -5269,11 +5339,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -5298,11 +5368,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -5327,17 +5397,17 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5362,11 +5432,11 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5391,23 +5461,23 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5432,17 +5502,17 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5467,11 +5537,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5496,11 +5566,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -5525,67 +5595,67 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5610,11 +5680,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5639,11 +5709,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C49" s="3"/>
@@ -5670,11 +5740,11 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5699,11 +5769,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5728,11 +5798,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5757,11 +5827,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5786,11 +5856,11 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5815,11 +5885,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C55" s="3"/>
@@ -5846,11 +5916,11 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5875,460 +5945,463 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:2" ht="150" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80">
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81">
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85">
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89">
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91">
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93">
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95">
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96">
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97">
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101">
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:2" ht="375" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="106">
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="11"/>
-    </row>
-    <row r="114">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="11"/>
-    </row>
-    <row r="115">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="11"/>
-    </row>
-    <row r="116">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="11"/>
-    </row>
-    <row r="117">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="11"/>
-    </row>
-    <row r="118">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="11"/>
-    </row>
-    <row r="119">
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="11"/>
-    </row>
-    <row r="120">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="11"/>
+      <c r="B120" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A120">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="5" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="5" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -6351,20 +6424,20 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="3"/>
@@ -6388,13 +6461,13 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6417,13 +6490,13 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6446,13 +6519,13 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6475,20 +6548,20 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="3"/>
@@ -6512,123 +6585,123 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="210" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="120" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -6651,20 +6724,20 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F19" s="3"/>
@@ -6688,13 +6761,13 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6717,20 +6790,20 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="3"/>
@@ -6754,13 +6827,13 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -6783,13 +6856,13 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6812,30 +6885,30 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6858,20 +6931,20 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="3"/>
@@ -6895,13 +6968,13 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6924,26 +6997,26 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F29" s="3"/>
@@ -6967,13 +7040,13 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6996,43 +7069,43 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="B33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F33" s="3"/>
@@ -7056,26 +7129,26 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F35" s="3"/>
@@ -7099,20 +7172,20 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="3"/>
@@ -7136,13 +7209,13 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -7165,113 +7238,113 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45">
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46">
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -7294,20 +7367,20 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F48" s="3"/>
@@ -7331,20 +7404,20 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F49" s="3"/>
@@ -7368,13 +7441,13 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -7397,20 +7470,20 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F51" s="3"/>
@@ -7434,13 +7507,13 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -7463,20 +7536,20 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="3"/>
@@ -7500,13 +7573,13 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -7529,20 +7602,20 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F55" s="3"/>
@@ -7566,13 +7639,13 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -7595,731 +7668,731 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59">
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69">
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="B69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71">
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73">
+      <c r="C72" s="5"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75">
+      <c r="C74" s="5"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77">
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" ht="150" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="11"/>
-    </row>
-    <row r="79">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83">
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" ht="135" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="E83" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85">
+      <c r="C84" s="5"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="6" t="s">
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="B87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="E87" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="11"/>
-    </row>
-    <row r="89">
+      <c r="C88" s="5"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="E89" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="11"/>
-    </row>
-    <row r="91">
+      <c r="C90" s="5"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="11"/>
-    </row>
-    <row r="93">
+      <c r="C92" s="5"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="150" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95">
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="B95" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="B97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99">
+      <c r="C98" s="5"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="B101" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="11"/>
-    </row>
-    <row r="103">
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104">
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" ht="375" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106">
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="D106" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="11"/>
-    </row>
-    <row r="108">
+      <c r="C107" s="5"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="B108" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="D108" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="B110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112">
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" s="6" t="s">
+      <c r="D112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="B114" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116">
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="B116" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118">
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="B118" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120">
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="11"/>
+      <c r="D120" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A120">
@@ -8327,6 +8400,7 @@
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>